--- a/testData/stock_material/stock_material.xlsx
+++ b/testData/stock_material/stock_material.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceadll-my.sharepoint.com/personal/lily_guo_ceadl_com/Documents/Lily_workspace/02_Development/Inventory-Testing-V2/testData/stock_material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceadll-my.sharepoint.com/personal/lily_guo_ceadl_com/Documents/Lily_workspace/02_Development/Inventory-Testing-v2/testData/stock_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC10480FE95E5AB45ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9AC1CE7-6236-437F-98FD-99D9A6E54D41}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC10480FE95E5AB45ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7194AB49-1FE0-4006-A7A5-2A3D525B451B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>lot_number</t>
   </si>
   <si>
-    <t>test-test</t>
-  </si>
-  <si>
     <t>supplier</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>I1-A</t>
+  </si>
+  <si>
+    <t>test1-test1</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,22 +401,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>100.99</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1">
         <v>45658</v>

--- a/testData/stock_material/stock_material.xlsx
+++ b/testData/stock_material/stock_material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceadll-my.sharepoint.com/personal/lily_guo_ceadl_com/Documents/Lily_workspace/02_Development/Inventory-Testing-v2/testData/stock_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC10480FE95E5AB45ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7194AB49-1FE0-4006-A7A5-2A3D525B451B}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC10480FE95E5AB45ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64A2112A-9990-42FE-BE01-C5F63423E3BF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>I1-A</t>
   </si>
   <si>
-    <t>test1-test1</t>
+    <t>test0-test1</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
